--- a/数据源.xlsx
+++ b/数据源.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ll199\Desktop\高考志愿报考系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB202415961\Desktop\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED8A19-1FD5-492C-ADA9-10A80645E0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3372B455-DEE0-468A-A585-2F8CBD58D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>综合类</t>
   </si>
   <si>
-    <t>西安</t>
-  </si>
-  <si>
     <t>985、211、双一流 A 类</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>农林类</t>
   </si>
   <si>
-    <t>咸阳</t>
-  </si>
-  <si>
     <t>农学、林学、农业工程（QS 世界前 100）719</t>
   </si>
   <si>
@@ -673,6 +667,14 @@
   </si>
   <si>
     <t>国际经济与贸易、旅游管理、英语（民办高校 A 专业）1617</t>
+  </si>
+  <si>
+    <t>西安市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸阳市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -822,6 +824,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,9 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1119,57 +1121,57 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F7"/>
+      <selection activeCell="F50" sqref="F50:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.58203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="20" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.58203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1178,1410 +1180,1410 @@
       <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="4">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="4">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="5">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="4">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>69</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="5">
+        <v>80</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="4">
-        <v>80</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="5">
+        <v>54</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="4">
-        <v>54</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="5">
+        <v>105</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="4">
-        <v>105</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>113</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="5">
+        <v>127</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="4">
-        <v>127</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="5">
+        <v>138</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="4">
-        <v>138</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="5">
+        <v>164</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="4">
-        <v>164</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="5">
+        <v>261</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="4">
-        <v>261</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="5">
+        <v>296</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" s="4">
-        <v>296</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="F41" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="5">
+        <v>207</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="4">
-        <v>207</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="F44" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="5">
+        <v>228</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="4">
-        <v>228</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="F47" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="5">
+        <v>342</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" s="4">
-        <v>342</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="F50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="5">
+        <v>314</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H50" s="4">
-        <v>314</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="H53" s="5">
         <v>441</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="5">
+        <v>409</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H56" s="4">
-        <v>409</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="I62" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="I65" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="I68" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2595,6 +2597,160 @@
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="168">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
     <mergeCell ref="I68:I70"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="B71:B73"/>
@@ -2609,162 +2765,9 @@
     <mergeCell ref="F68:F70"/>
     <mergeCell ref="G68:G70"/>
     <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>